--- a/timesheet_BillyDavies_s230525.xlsx
+++ b/timesheet_BillyDavies_s230525.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Billy\Documents\GitHub\S220PRT585_s230525\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B728C591-C097-42AC-AD7D-2E673FEF80A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E715EDA-0EEF-4FF6-8ABC-355495900F77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3885" yWindow="4380" windowWidth="28800" windowHeight="11580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
   <si>
     <t>Time sheet Billy Davies</t>
   </si>
@@ -83,6 +83,27 @@
   </si>
   <si>
     <t>Making sure git is correct and set up</t>
+  </si>
+  <si>
+    <t>Reading about entity framework</t>
+  </si>
+  <si>
+    <t>Going over lecture notes</t>
+  </si>
+  <si>
+    <t>Reading about tag helper</t>
+  </si>
+  <si>
+    <t>Watched part of linked tutorial</t>
+  </si>
+  <si>
+    <t>Looked at past work</t>
+  </si>
+  <si>
+    <t>Worked on weekly task</t>
+  </si>
+  <si>
+    <t>Time sheet with group</t>
   </si>
 </sst>
 </file>
@@ -703,7 +724,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,7 +759,9 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -749,7 +772,9 @@
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -760,7 +785,9 @@
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -771,7 +798,9 @@
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -782,7 +811,9 @@
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -793,7 +824,9 @@
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -804,7 +837,9 @@
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -815,7 +850,9 @@
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -826,7 +863,9 @@
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -837,7 +876,9 @@
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -854,8 +895,10 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -863,8 +906,10 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -872,8 +917,10 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="A16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -881,8 +928,10 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="A17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="3"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -890,8 +939,10 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="A18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -899,8 +950,10 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="A19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="3"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -908,8 +961,10 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="A20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="3"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -935,6 +990,7 @@
       <c r="G22" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/timesheet_BillyDavies_s230525.xlsx
+++ b/timesheet_BillyDavies_s230525.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Billy\Documents\GitHub\S220PRT585_s230525\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E715EDA-0EEF-4FF6-8ABC-355495900F77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E382D0-D674-4578-8B30-A5F9738B7D62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3885" yWindow="4380" windowWidth="28800" windowHeight="11580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
   <si>
     <t>Time sheet Billy Davies</t>
   </si>
@@ -104,6 +104,15 @@
   </si>
   <si>
     <t>Time sheet with group</t>
+  </si>
+  <si>
+    <t>Talked about tag helper</t>
+  </si>
+  <si>
+    <t>Talked about entity framework</t>
+  </si>
+  <si>
+    <t>Talked about sql server and linq queries</t>
   </si>
 </sst>
 </file>
@@ -724,7 +733,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,7 +918,9 @@
       <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -920,7 +931,9 @@
       <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -931,7 +944,9 @@
       <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>

--- a/timesheet_BillyDavies_s230525.xlsx
+++ b/timesheet_BillyDavies_s230525.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Billy\Documents\GitHub\S220PRT585_s230525\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E382D0-D674-4578-8B30-A5F9738B7D62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F1FA92-3526-4BEE-B140-2051AECE83EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="4380" windowWidth="28800" windowHeight="11580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3885" yWindow="4380" windowWidth="28800" windowHeight="11580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week One" sheetId="2" r:id="rId1"/>
     <sheet name="Week Two" sheetId="1" r:id="rId2"/>
+    <sheet name="Week Three" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="35">
   <si>
     <t>Time sheet Billy Davies</t>
   </si>
@@ -113,6 +114,24 @@
   </si>
   <si>
     <t>Talked about sql server and linq queries</t>
+  </si>
+  <si>
+    <t>Looked at old assignments</t>
+  </si>
+  <si>
+    <t>Worked on web app canvas</t>
+  </si>
+  <si>
+    <t>Looked at and read through weekly tasks</t>
+  </si>
+  <si>
+    <t>Answered first three questions</t>
+  </si>
+  <si>
+    <t>Answered next three questions</t>
+  </si>
+  <si>
+    <t>Answered final three questions</t>
   </si>
 </sst>
 </file>
@@ -732,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,4 +1027,165 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9E1D62-40F7-4385-8790-A6D43D88FD83}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/timesheet_BillyDavies_s230525.xlsx
+++ b/timesheet_BillyDavies_s230525.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Billy\Documents\GitHub\S220PRT585_s230525\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F1FA92-3526-4BEE-B140-2051AECE83EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989FB93E-401A-4AB3-A855-0200B16F647C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="4380" windowWidth="28800" windowHeight="11580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3885" yWindow="4380" windowWidth="28800" windowHeight="11580" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week One" sheetId="2" r:id="rId1"/>
     <sheet name="Week Two" sheetId="1" r:id="rId2"/>
     <sheet name="Week Three" sheetId="3" r:id="rId3"/>
+    <sheet name="Week4" sheetId="4" r:id="rId4"/>
+    <sheet name="Week5" sheetId="5" r:id="rId5"/>
+    <sheet name="Week6" sheetId="6" r:id="rId6"/>
+    <sheet name="Week7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="35">
   <si>
     <t>Time sheet Billy Davies</t>
   </si>
@@ -1033,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9E1D62-40F7-4385-8790-A6D43D88FD83}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1188,4 +1192,560 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D27F977-859D-4513-B80E-36154E59EE06}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD0EEDE-D5E3-47D5-987F-9D1C22A234C2}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCE12E0-AC79-476D-B6DC-1E907CF84F25}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B3778D5-2B19-418C-96D8-5E7D22C2D702}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/timesheet_BillyDavies_s230525.xlsx
+++ b/timesheet_BillyDavies_s230525.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Billy\Documents\GitHub\S220PRT585_s230525\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989FB93E-401A-4AB3-A855-0200B16F647C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3168081D-10B0-4A66-AEDD-87694B523487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="4380" windowWidth="28800" windowHeight="11580" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3885" yWindow="4380" windowWidth="28800" windowHeight="11580" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week One" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="42">
   <si>
     <t>Time sheet Billy Davies</t>
   </si>
@@ -136,6 +136,27 @@
   </si>
   <si>
     <t>Answered final three questions</t>
+  </si>
+  <si>
+    <t>Working on weekly task</t>
+  </si>
+  <si>
+    <t>Reinstall software due to computer issues</t>
+  </si>
+  <si>
+    <t>Researching  anglular</t>
+  </si>
+  <si>
+    <t>Working on paper prototype</t>
+  </si>
+  <si>
+    <t>Met with team to talk about how we are doing</t>
+  </si>
+  <si>
+    <t>Met with team again to discuss project</t>
+  </si>
+  <si>
+    <t>Talked about the prototypes we made</t>
   </si>
 </sst>
 </file>
@@ -1476,8 +1497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCE12E0-AC79-476D-B6DC-1E907CF84F25}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1516,49 +1537,65 @@
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
@@ -1574,19 +1611,25 @@
       <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -1615,7 +1658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B3778D5-2B19-418C-96D8-5E7D22C2D702}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
